--- a/medicine/Maladies infectieuses/Cordon_sanitaire/Cordon_sanitaire.xlsx
+++ b/medicine/Maladies infectieuses/Cordon_sanitaire/Cordon_sanitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un cordon sanitaire est un espace contrôlé en vue de surveiller les accès à une zone où sévit une épidémie.
-En 1821, la France envoie trente mille soldats sceller la frontière avec l'Espagne, officiellement pour empêcher une épidémie de fièvre jaune qui sévit à Barcelone de franchir les Pyrénées, et c'est à cette occasion que le mot « cordon sanitaire » est employé pour la première fois[1]. En réalité l'objectif était d'empêcher le passage d'idées libérales et révolutionnaires de l'Espagne constitutionnelle vers la France de Louis XVIII[2]. 
-En 1834, le comté de Nice qui appartient au royaume de Sardaigne est fermé par un cordon sanitaire sur la rive gauche du Var qui forme la frontière, forçant les étrangers à observer une quarantaine sur la rive droite en raison d’une épidémie de choléra. C'est ainsi que Lord Henry Brougham and Vaux, grand Chancelier d’Angleterre qui emmenait sa fille Éléonore-Louise visiter l’Italie, contraint de faire demi-tour, découvre Cannes[3].
+En 1821, la France envoie trente mille soldats sceller la frontière avec l'Espagne, officiellement pour empêcher une épidémie de fièvre jaune qui sévit à Barcelone de franchir les Pyrénées, et c'est à cette occasion que le mot « cordon sanitaire » est employé pour la première fois. En réalité l'objectif était d'empêcher le passage d'idées libérales et révolutionnaires de l'Espagne constitutionnelle vers la France de Louis XVIII. 
+En 1834, le comté de Nice qui appartient au royaume de Sardaigne est fermé par un cordon sanitaire sur la rive gauche du Var qui forme la frontière, forçant les étrangers à observer une quarantaine sur la rive droite en raison d’une épidémie de choléra. C'est ainsi que Lord Henry Brougham and Vaux, grand Chancelier d’Angleterre qui emmenait sa fille Éléonore-Louise visiter l’Italie, contraint de faire demi-tour, découvre Cannes.
 </t>
         </is>
       </c>
